--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value624.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value624.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.250927592495024</v>
+        <v>1.296676397323608</v>
       </c>
       <c r="B1">
-        <v>2.428165973450057</v>
+        <v>2.944759607315063</v>
       </c>
       <c r="C1">
-        <v>4.287745578937445</v>
+        <v>5.167603492736816</v>
       </c>
       <c r="D1">
-        <v>2.82281045881413</v>
+        <v>1.838336110115051</v>
       </c>
       <c r="E1">
-        <v>1.059219068786519</v>
+        <v>1.009628176689148</v>
       </c>
     </row>
   </sheetData>
